--- a/BD paper/catalogos/waveform_6-9_filtered.xlsx
+++ b/BD paper/catalogos/waveform_6-9_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,26 @@
           <t>Inicio estación más cercana 5</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 7</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -590,6 +610,26 @@
           <t>2014-03-16T21:16:40</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2014-03-16T21:16:41</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2014-03-16T21:16:42</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -662,6 +702,26 @@
           <t>2014-03-17T05:11:46</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2014-03-17T05:11:48</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2014-03-17T05:11:49</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -734,6 +794,26 @@
           <t>2014-03-22T13:00:12</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2014-03-22T13:00:13</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2014-03-22T13:00:14</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -806,6 +886,26 @@
           <t>2014-03-23T18:20:15</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2014-03-23T18:20:15</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2014-03-23T18:20:17</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -878,6 +978,26 @@
           <t>2014-04-01T23:47:01</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2014-04-01T23:47:02</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2014-04-01T23:47:02</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +1070,26 @@
           <t>2014-04-03T01:58:40</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2014-04-03T01:58:40</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2014-04-03T01:58:42</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1022,6 +1162,26 @@
           <t>2014-04-03T02:43:25</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:43:26</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:43:28</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1094,6 +1254,26 @@
           <t>2014-04-03T05:26:24</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2014-04-03T05:26:25</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2014-04-03T05:26:27</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1166,6 +1346,26 @@
           <t>2014-04-04T01:38:03</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2014-04-04T01:38:03</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2014-04-04T01:38:05</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1238,6 +1438,26 @@
           <t>2014-04-01T23:58:12</t>
         </is>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2014-04-01T23:58:13</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2014-04-01T23:58:13</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1310,6 +1530,26 @@
           <t>2014-04-11T00:01:56</t>
         </is>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2014-04-11T00:01:56</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2014-04-11T00:01:58</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1382,6 +1622,26 @@
           <t>2014-08-23T22:32:30</t>
         </is>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2014-08-23T22:32:31</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2014-08-23T22:32:33</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1454,6 +1714,26 @@
           <t>2015-09-16T22:54:47</t>
         </is>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2015-09-16T22:54:51</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2015-09-16T22:54:52</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1526,6 +1806,26 @@
           <t>2015-09-16T23:18:54</t>
         </is>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>VA03</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2015-09-16T23:19:00</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2015-09-16T23:19:01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1598,6 +1898,26 @@
           <t>2015-09-16T23:16:26</t>
         </is>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2015-09-16T23:16:28</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2015-09-16T23:16:30</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1670,6 +1990,26 @@
           <t>2015-09-17T01:41:20</t>
         </is>
       </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2015-09-17T01:41:21</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2015-09-17T01:41:21</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1742,6 +2082,26 @@
           <t>2015-09-17T03:55:31</t>
         </is>
       </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2015-09-17T03:55:35</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2015-09-17T03:55:35</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1814,6 +2174,26 @@
           <t>2015-09-17T04:10:43</t>
         </is>
       </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2015-09-17T04:10:47</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2015-09-17T04:10:48</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1886,6 +2266,26 @@
           <t>2015-09-18T09:11:00</t>
         </is>
       </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2015-09-18T09:11:00</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2015-09-18T09:11:01</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1958,6 +2358,26 @@
           <t>2015-09-19T05:07:02</t>
         </is>
       </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2015-09-19T05:07:03</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2015-09-19T05:07:03</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2030,6 +2450,26 @@
           <t>2015-09-19T12:52:35</t>
         </is>
       </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2015-09-19T12:52:35</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2015-09-19T12:52:36</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2102,6 +2542,26 @@
           <t>2015-09-21T05:39:50</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2015-09-21T05:39:53</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2015-09-21T05:39:55</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2174,6 +2634,26 @@
           <t>2015-09-21T17:40:14</t>
         </is>
       </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2015-09-21T17:40:17</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2015-09-21T17:40:17</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2246,6 +2726,26 @@
           <t>2015-09-22T07:13:15</t>
         </is>
       </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2015-09-22T07:13:18</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2015-09-22T07:13:18</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2318,6 +2818,26 @@
           <t>2015-09-26T02:51:28</t>
         </is>
       </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2015-09-26T02:51:29</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2015-09-26T02:51:29</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2390,6 +2910,26 @@
           <t>2015-11-07T07:04:49</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2015-11-07T07:04:51</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2015-11-07T07:04:51</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2462,6 +3002,26 @@
           <t>2015-11-11T01:54:54</t>
         </is>
       </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2015-11-11T01:54:55</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2015-11-11T01:54:55</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2534,6 +3094,26 @@
           <t>2015-11-11T02:46:35</t>
         </is>
       </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2015-11-11T02:46:36</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2015-11-11T02:46:36</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2606,6 +3186,26 @@
           <t>2015-11-27T21:00:40</t>
         </is>
       </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>PB19</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2015-11-27T21:00:42</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2015-11-27T21:00:48</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2678,6 +3278,26 @@
           <t>2016-02-10T00:33:15</t>
         </is>
       </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2016-02-10T00:33:15</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2016-02-10T00:33:16</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2750,6 +3370,26 @@
           <t>2015-09-17T04:10:43</t>
         </is>
       </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2015-09-17T04:10:47</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2015-09-17T04:10:48</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2822,6 +3462,26 @@
           <t>2015-09-22T07:13:15</t>
         </is>
       </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2015-09-22T07:13:18</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2015-09-22T07:13:18</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2894,6 +3554,26 @@
           <t>2015-09-21T05:39:50</t>
         </is>
       </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2015-09-21T05:39:53</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2015-09-21T05:39:54</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2966,6 +3646,26 @@
           <t>2015-09-19T12:52:35</t>
         </is>
       </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2015-09-19T12:52:35</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2015-09-19T12:52:36</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3038,6 +3738,26 @@
           <t>2017-04-23T02:36:17</t>
         </is>
       </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2017-04-23T02:36:18</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2017-04-23T02:36:18</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3110,6 +3830,26 @@
           <t>2017-04-24T21:38:40</t>
         </is>
       </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2017-04-24T21:38:41</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2017-04-24T21:38:41</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3182,6 +3922,26 @@
           <t>2019-01-20T01:32:58</t>
         </is>
       </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2019-01-20T01:32:59</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2019-01-20T01:33:02</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3254,6 +4014,26 @@
           <t>2019-06-14T00:19:25</t>
         </is>
       </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2019-06-14T00:19:27</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2019-06-14T00:19:27</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3326,6 +4106,26 @@
           <t>2019-11-04T21:53:40</t>
         </is>
       </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2019-11-04T21:53:41</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2019-11-04T21:53:41</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3398,6 +4198,26 @@
           <t>2019-12-03T08:46:51</t>
         </is>
       </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>PB16</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2019-12-03T08:46:51</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2019-12-03T08:46:51</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3470,6 +4290,26 @@
           <t>2020-09-01T04:09:42</t>
         </is>
       </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:09:45</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:09:45</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3542,6 +4382,26 @@
           <t>2020-09-01T04:30:16</t>
         </is>
       </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:30:18</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:30:18</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3614,6 +4474,26 @@
           <t>2020-09-01T21:09:31</t>
         </is>
       </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2020-09-01T21:09:35</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2020-09-01T21:09:35</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3686,6 +4566,26 @@
           <t>2020-09-06T01:17:06</t>
         </is>
       </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:06</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:09</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3756,6 +4656,26 @@
       <c r="P46" t="inlineStr">
         <is>
           <t>2020-09-11T07:36:05</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>PB09</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2020-09-11T07:36:06</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2020-09-11T07:36:07</t>
         </is>
       </c>
     </row>

--- a/BD paper/catalogos/waveform_6-9_filtered.xlsx
+++ b/BD paper/catalogos/waveform_6-9_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,37 +495,37 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 7</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Inicio estación más cercana 1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 5</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Estación más cercana 6</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Estación más cercana 7</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -587,37 +587,37 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2014-03-16T21:16:35</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2014-03-16T21:16:36</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>2014-03-16T21:16:38</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>2014-03-16T21:16:38</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>2014-03-16T21:16:40</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -679,37 +679,37 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2014-03-17T05:11:42</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>2014-03-17T05:11:43</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2014-03-17T05:11:44</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2014-03-17T05:11:45</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>2014-03-17T05:11:46</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -771,37 +771,37 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>2014-03-22T13:00:08</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2014-03-22T13:00:09</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2014-03-22T13:00:11</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>2014-03-22T13:00:12</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>2014-03-22T13:00:12</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -863,37 +863,37 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>2014-03-23T18:20:09</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>2014-03-23T18:20:12</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>2014-03-23T18:20:13</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>2014-03-23T18:20:15</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>2014-03-23T18:20:15</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -955,37 +955,37 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>2014-04-01T23:46:55</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2014-04-01T23:46:58</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2014-04-01T23:46:59</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>2014-04-01T23:47:01</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>2014-04-01T23:47:01</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1047,37 +1047,37 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>2014-04-03T01:58:33</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2014-04-03T01:58:33</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2014-04-03T01:58:36</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2014-04-03T01:58:37</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>2014-04-03T01:58:40</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1139,37 +1139,37 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>2014-04-03T02:43:18</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>2014-04-03T02:43:19</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>2014-04-03T02:43:20</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>2014-04-03T02:43:22</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>2014-04-03T02:43:25</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>PB02</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1231,37 +1231,37 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>2014-04-03T05:26:18</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2014-04-03T05:26:18</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2014-04-03T05:26:21</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>2014-04-03T05:26:23</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>2014-04-03T05:26:24</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1323,37 +1323,37 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>2014-04-04T01:37:55</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>2014-04-04T01:37:56</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2014-04-04T01:37:57</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>2014-04-04T01:38:00</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>2014-04-04T01:38:03</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1415,37 +1415,37 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>2014-04-01T23:58:08</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>2014-04-01T23:58:08</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2014-04-01T23:58:09</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>2014-04-01T23:58:11</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>2014-04-01T23:58:12</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1507,37 +1507,37 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>2014-04-11T00:01:49</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>2014-04-11T00:01:49</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2014-04-11T00:01:52</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2014-04-11T00:01:54</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>2014-04-11T00:01:56</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1599,37 +1599,37 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>2014-08-23T22:32:25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>2014-08-23T22:32:28</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>2014-08-23T22:32:29</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>2014-08-23T22:32:29</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>2014-08-23T22:32:30</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>MT02</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>CO04</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1691,37 +1691,37 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>2015-09-16T22:54:41</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2015-09-16T22:54:42</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>2015-09-16T22:54:44</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>2015-09-16T22:54:46</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>2015-09-16T22:54:47</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1783,37 +1783,37 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>VA03</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>2015-09-16T23:18:48</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2015-09-16T23:18:49</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>2015-09-16T23:18:53</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>2015-09-16T23:18:54</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>2015-09-16T23:18:54</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>VA03</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1875,37 +1875,37 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>2015-09-16T23:16:21</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2015-09-16T23:16:21</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>2015-09-16T23:16:22</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>2015-09-16T23:16:24</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>2015-09-16T23:16:26</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1967,37 +1967,37 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>2015-09-17T01:41:10</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>2015-09-17T01:41:12</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>2015-09-17T01:41:16</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>2015-09-17T01:41:20</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>2015-09-17T01:41:20</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2059,37 +2059,37 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>2015-09-17T03:55:23</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>2015-09-17T03:55:25</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>2015-09-17T03:55:26</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>2015-09-17T03:55:29</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>2015-09-17T03:55:31</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2151,37 +2151,37 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>2015-09-17T04:10:37</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>2015-09-17T04:10:38</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>2015-09-17T04:10:39</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>2015-09-17T04:10:42</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>2015-09-17T04:10:43</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2243,37 +2243,37 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>2015-09-18T09:10:55</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>2015-09-18T09:10:55</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>2015-09-18T09:10:56</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>2015-09-18T09:10:59</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>2015-09-18T09:11:00</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2335,37 +2335,37 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>2015-09-19T05:06:56</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>2015-09-19T05:06:57</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>2015-09-19T05:06:57</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>2015-09-19T05:06:57</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>2015-09-19T05:07:02</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2427,37 +2427,37 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>2015-09-19T12:52:29</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>2015-09-19T12:52:30</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>2015-09-19T12:52:32</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>2015-09-19T12:52:33</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>2015-09-19T12:52:35</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2519,37 +2519,37 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>2015-09-21T05:39:44</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>2015-09-21T05:39:45</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>2015-09-21T05:39:46</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>2015-09-21T05:39:48</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>2015-09-21T05:39:50</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2611,37 +2611,37 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>2015-09-21T17:40:06</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>2015-09-21T17:40:08</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>2015-09-21T17:40:11</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>2015-09-21T17:40:14</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>2015-09-21T17:40:14</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>ROC1</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>MT07</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2703,37 +2703,37 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>2015-09-22T07:13:04</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>2015-09-22T07:13:08</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>2015-09-22T07:13:10</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>2015-09-22T07:13:11</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>2015-09-22T07:13:15</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2795,37 +2795,37 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>2015-09-26T02:51:22</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>2015-09-26T02:51:24</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>2015-09-26T02:51:25</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>2015-09-26T02:51:28</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>2015-09-26T02:51:28</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>IN41</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2887,37 +2887,37 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>2015-11-07T07:04:41</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>2015-11-07T07:04:44</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>2015-11-07T07:04:45</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>2015-11-07T07:04:45</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>2015-11-07T07:04:49</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2933,19 +2933,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5164806</v>
+        <v>5164446</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>42319.07960648148</v>
+        <v>42315.31369212963</v>
       </c>
       <c r="C28" t="n">
-        <v>-29.5067</v>
+        <v>-30.8796</v>
       </c>
       <c r="D28" t="n">
-        <v>-72.0068</v>
+        <v>-71.45189999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2954,87 +2954,87 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
           <t>IN41</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>CO06</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2015-11-11T01:54:45</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2015-11-11T01:54:48</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2015-11-11T01:54:48</t>
+          <t>2015-11-07T07:31:46</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2015-11-11T01:54:49</t>
+          <t>2015-11-07T07:31:49</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2015-11-11T01:54:54</t>
+          <t>2015-11-07T07:31:52</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>2015-11-07T07:31:55</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>2015-11-07T07:31:55</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2015-11-11T01:54:55</t>
+          <t>2015-11-07T07:31:55</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>2015-11-11T01:54:55</t>
+          <t>2015-11-07T07:31:55</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5164812</v>
+        <v>5164806</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>42319.11549768518</v>
+        <v>42319.07960648148</v>
       </c>
       <c r="C29" t="n">
-        <v>-29.5097</v>
+        <v>-29.5067</v>
       </c>
       <c r="D29" t="n">
-        <v>-72.0585</v>
+        <v>-72.0068</v>
       </c>
       <c r="E29" t="n">
         <v>6.9</v>
@@ -3056,14 +3056,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>IN40</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>CO06</t>
@@ -3071,341 +3071,341 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2015-11-11T02:46:27</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2015-11-11T02:46:30</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2015-11-11T02:46:30</t>
+          <t>2015-11-11T01:54:45</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2015-11-11T02:46:30</t>
+          <t>2015-11-11T01:54:48</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2015-11-11T02:46:35</t>
+          <t>2015-11-11T01:54:48</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>2015-11-11T01:54:49</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>2015-11-11T01:54:54</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>2015-11-11T02:46:36</t>
+          <t>2015-11-11T01:54:55</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>2015-11-11T02:46:36</t>
+          <t>2015-11-11T01:54:55</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5166481</v>
+        <v>5164812</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>42335.87525462963</v>
+        <v>42319.11549768518</v>
       </c>
       <c r="C30" t="n">
-        <v>-24.828</v>
+        <v>-29.5097</v>
       </c>
       <c r="D30" t="n">
-        <v>-70.6009</v>
+        <v>-72.0585</v>
       </c>
       <c r="E30" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PB14</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PB14</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>GO02</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>AC01</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>PB10</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>PX06</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2015-11-27T21:00:25</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2015-11-27T21:00:35</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2015-11-27T21:00:40</t>
+          <t>2015-11-11T02:46:27</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2015-11-27T21:00:40</t>
+          <t>2015-11-11T02:46:30</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2015-11-27T21:00:40</t>
+          <t>2015-11-11T02:46:30</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>PB19</t>
+          <t>2015-11-11T02:46:30</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>PB15</t>
+          <t>2015-11-11T02:46:35</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>2015-11-27T21:00:42</t>
+          <t>2015-11-11T02:46:36</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>2015-11-27T21:00:48</t>
+          <t>2015-11-11T02:46:36</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5173903</v>
+        <v>5166481</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>42410.02297453704</v>
+        <v>42335.87525462963</v>
       </c>
       <c r="C31" t="n">
-        <v>-30.5723</v>
+        <v>-24.828</v>
       </c>
       <c r="D31" t="n">
-        <v>-71.5838</v>
+        <v>-70.6009</v>
       </c>
       <c r="E31" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>PB14</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>PB14</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>GO02</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>AC01</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>PB10</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>PX06</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2016-02-10T00:33:06</t>
+          <t>PB19</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2016-02-10T00:33:13</t>
+          <t>PB15</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2016-02-10T00:33:14</t>
+          <t>2015-11-27T21:00:25</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2016-02-10T00:33:14</t>
+          <t>2015-11-27T21:00:35</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2016-02-10T00:33:15</t>
+          <t>2015-11-27T21:00:40</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>2015-11-27T21:00:40</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>2015-11-27T21:00:40</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2016-02-10T00:33:15</t>
+          <t>2015-11-27T21:00:42</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>2016-02-10T00:33:16</t>
+          <t>2015-11-27T21:00:48</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8499053</v>
+        <v>5173903</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>42264.17392361111</v>
+        <v>42410.02297453704</v>
       </c>
       <c r="C32" t="n">
-        <v>-31.52</v>
+        <v>-30.5723</v>
       </c>
       <c r="D32" t="n">
-        <v>-71.81</v>
+        <v>-71.5838</v>
       </c>
       <c r="E32" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
           <t>CO02</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>CO06</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>CO04</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>VA06</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>CO03</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2015-09-17T04:10:37</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2015-09-17T04:10:38</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2015-09-17T04:10:39</t>
+          <t>2016-02-10T00:33:06</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2015-09-17T04:10:42</t>
+          <t>2016-02-10T00:33:13</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2015-09-17T04:10:43</t>
+          <t>2016-02-10T00:33:14</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>2016-02-10T00:33:14</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>2016-02-10T00:33:15</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2015-09-17T04:10:47</t>
+          <t>2016-02-10T00:33:15</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>2015-09-17T04:10:48</t>
+          <t>2016-02-10T00:33:16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8499802</v>
+        <v>8499053</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>42269.30069444444</v>
+        <v>42264.17392361111</v>
       </c>
       <c r="C33" t="n">
-        <v>-31.44</v>
+        <v>-31.52</v>
       </c>
       <c r="D33" t="n">
-        <v>-71.26000000000001</v>
+        <v>-71.81</v>
       </c>
       <c r="E33" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -3419,82 +3419,82 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>CO04</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VA06</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>CO03</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>CO06</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>VA06</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2015-09-22T07:13:04</t>
+          <t>VA01</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2015-09-22T07:13:08</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2015-09-22T07:13:10</t>
+          <t>2015-09-17T04:10:37</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2015-09-22T07:13:11</t>
+          <t>2015-09-17T04:10:38</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2015-09-22T07:13:15</t>
+          <t>2015-09-17T04:10:39</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>2015-09-17T04:10:42</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>2015-09-17T04:10:43</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>2015-09-22T07:13:18</t>
+          <t>2015-09-17T04:10:47</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>2015-09-22T07:13:18</t>
+          <t>2015-09-17T04:10:48</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8500055</v>
+        <v>8499802</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>42268.23581018519</v>
+        <v>42269.30069444444</v>
       </c>
       <c r="C34" t="n">
-        <v>-31.58</v>
+        <v>-31.44</v>
       </c>
       <c r="D34" t="n">
-        <v>-71.73999999999999</v>
+        <v>-71.26000000000001</v>
       </c>
       <c r="E34" t="n">
         <v>6.1</v>
@@ -3516,80 +3516,80 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
           <t>CO06</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>VA06</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>CO03</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2015-09-21T05:39:44</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2015-09-21T05:39:45</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2015-09-21T05:39:46</t>
+          <t>2015-09-22T07:13:04</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2015-09-21T05:39:48</t>
+          <t>2015-09-22T07:13:08</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2015-09-21T05:39:50</t>
+          <t>2015-09-22T07:13:10</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>2015-09-22T07:13:11</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>2015-09-22T07:13:15</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>2015-09-21T05:39:53</t>
+          <t>2015-09-22T07:13:18</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>2015-09-21T05:39:54</t>
+          <t>2015-09-22T07:13:18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8500490</v>
+        <v>8500055</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>42266.53634259259</v>
+        <v>42268.23581018519</v>
       </c>
       <c r="C35" t="n">
-        <v>-32.33</v>
+        <v>-31.58</v>
       </c>
       <c r="D35" t="n">
-        <v>-72.06999999999999</v>
+        <v>-71.73999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3598,182 +3598,182 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
           <t>VA06</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>VA01</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>CO04</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>ROC1</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2015-09-19T12:52:29</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2015-09-19T12:52:30</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2015-09-19T12:52:32</t>
+          <t>2015-09-21T05:39:44</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2015-09-19T12:52:33</t>
+          <t>2015-09-21T05:39:45</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2015-09-19T12:52:35</t>
+          <t>2015-09-21T05:39:46</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>MT07</t>
+          <t>2015-09-21T05:39:48</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>MT02</t>
+          <t>2015-09-21T05:39:50</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>2015-09-19T12:52:35</t>
+          <t>2015-09-21T05:39:53</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>2015-09-19T12:52:36</t>
+          <t>2015-09-21T05:39:54</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10091622</v>
+        <v>8500490</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>42848.10841435185</v>
+        <v>42266.53634259259</v>
       </c>
       <c r="C36" t="n">
-        <v>-33.0361</v>
+        <v>-32.33</v>
       </c>
       <c r="D36" t="n">
-        <v>-72.0063</v>
+        <v>-72.06999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
+          <t>VA06</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>V25A</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>VA05</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
           <t>MT02</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>VA06</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2017-04-23T02:36:11</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2017-04-23T02:36:11</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2017-04-23T02:36:16</t>
+          <t>2015-09-19T12:52:29</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2017-04-23T02:36:17</t>
+          <t>2015-09-19T12:52:30</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2017-04-23T02:36:17</t>
+          <t>2015-09-19T12:52:32</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>2015-09-19T12:52:33</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>MT07</t>
+          <t>2015-09-19T12:52:35</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>2017-04-23T02:36:18</t>
+          <t>2015-09-19T12:52:35</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>2017-04-23T02:36:18</t>
+          <t>2015-09-19T12:52:36</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10100470</v>
+        <v>10091622</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>42849.90173611111</v>
+        <v>42848.10841435185</v>
       </c>
       <c r="C37" t="n">
-        <v>-33.0291</v>
+        <v>-33.0361</v>
       </c>
       <c r="D37" t="n">
-        <v>-72.04519999999999</v>
+        <v>-72.0063</v>
       </c>
       <c r="E37" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3807,161 +3807,161 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2017-04-24T21:38:34</t>
+          <t>ROC1</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2017-04-24T21:38:34</t>
+          <t>MT07</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2017-04-24T21:38:39</t>
+          <t>2017-04-23T02:36:11</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2017-04-24T21:38:40</t>
+          <t>2017-04-23T02:36:11</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2017-04-24T21:38:40</t>
+          <t>2017-04-23T02:36:16</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>2017-04-23T02:36:17</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>MT07</t>
+          <t>2017-04-23T02:36:17</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>2017-04-24T21:38:41</t>
+          <t>2017-04-23T02:36:18</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>2017-04-24T21:38:41</t>
+          <t>2017-04-23T02:36:18</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10997608</v>
+        <v>10100470</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43485.06447916666</v>
+        <v>42849.90173611111</v>
       </c>
       <c r="C38" t="n">
-        <v>-30.071</v>
+        <v>-33.0291</v>
       </c>
       <c r="D38" t="n">
-        <v>-71.42019999999999</v>
+        <v>-72.04519999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CO01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>V25A</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>VA01</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>VA05</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>MT02</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>VA06</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2019-01-20T01:32:52</t>
+          <t>ROC1</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2019-01-20T01:32:53</t>
+          <t>MT07</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2019-01-20T01:32:54</t>
+          <t>2017-04-24T21:38:34</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2019-01-20T01:32:58</t>
+          <t>2017-04-24T21:38:34</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2019-01-20T01:32:58</t>
+          <t>2017-04-24T21:38:39</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>2017-04-24T21:38:40</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>2017-04-24T21:38:40</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>2019-01-20T01:32:59</t>
+          <t>2017-04-24T21:38:41</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>2019-01-20T01:33:02</t>
+          <t>2017-04-24T21:38:41</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>11048697</v>
+        <v>10997608</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43630.01333333334</v>
+        <v>43485.06447916666</v>
       </c>
       <c r="C39" t="n">
-        <v>-30.0557</v>
+        <v>-30.071</v>
       </c>
       <c r="D39" t="n">
-        <v>-72.0819</v>
+        <v>-71.42019999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>CO01</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3971,85 +3971,85 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>CO05</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>CO06</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>CO10</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>2019-06-14T00:19:21</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2019-06-14T00:19:22</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2019-06-14T00:19:22</t>
+          <t>2019-01-20T01:32:52</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2019-06-14T00:19:22</t>
+          <t>2019-01-20T01:32:53</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2019-06-14T00:19:25</t>
+          <t>2019-01-20T01:32:54</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>2019-01-20T01:32:58</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>2019-01-20T01:32:58</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>2019-06-14T00:19:27</t>
+          <t>2019-01-20T01:32:59</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>2019-06-14T00:19:27</t>
+          <t>2019-01-20T01:33:02</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11141219</v>
+        <v>11048697</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43773.91209490741</v>
+        <v>43630.01333333334</v>
       </c>
       <c r="C40" t="n">
-        <v>-31.8362</v>
+        <v>-30.0557</v>
       </c>
       <c r="D40" t="n">
-        <v>-71.3753</v>
+        <v>-72.0819</v>
       </c>
       <c r="E40" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -4058,274 +4058,274 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CO04</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>VA06</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>CO03</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>VA03</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2019-11-04T21:53:30</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2019-11-04T21:53:34</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2019-11-04T21:53:35</t>
+          <t>2019-06-14T00:19:21</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2019-11-04T21:53:40</t>
+          <t>2019-06-14T00:19:22</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2019-11-04T21:53:40</t>
+          <t>2019-06-14T00:19:22</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>2019-06-14T00:19:22</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>2019-06-14T00:19:25</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2019-11-04T21:53:41</t>
+          <t>2019-06-14T00:19:27</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>2019-11-04T21:53:41</t>
+          <t>2019-06-14T00:19:27</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11153237</v>
+        <v>11141219</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43802.36569444444</v>
+        <v>43773.91209490741</v>
       </c>
       <c r="C41" t="n">
-        <v>-18.5597</v>
+        <v>-31.8362</v>
       </c>
       <c r="D41" t="n">
-        <v>-70.6504</v>
+        <v>-71.3753</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>AP01</t>
+          <t>CO04</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>PB12</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>VA06</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>MNMCX</t>
+          <t>CO03</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>PB13</t>
+          <t>VA03</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2019-12-03T08:46:40</t>
+          <t>ROC1</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2019-12-03T08:46:40</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2019-12-03T08:46:44</t>
+          <t>2019-11-04T21:53:30</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2019-12-03T08:46:51</t>
+          <t>2019-11-04T21:53:34</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2019-12-03T08:46:51</t>
+          <t>2019-11-04T21:53:35</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>PB16</t>
+          <t>2019-11-04T21:53:40</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>2019-11-04T21:53:40</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>2019-12-03T08:46:51</t>
+          <t>2019-11-04T21:53:41</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>2019-12-03T08:46:51</t>
+          <t>2019-11-04T21:53:41</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11303695</v>
+        <v>11153237</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44075.17324074074</v>
+        <v>43802.36569444444</v>
       </c>
       <c r="C42" t="n">
-        <v>-27.9728</v>
+        <v>-18.5597</v>
       </c>
       <c r="D42" t="n">
-        <v>-71.3031</v>
+        <v>-70.6504</v>
       </c>
       <c r="E42" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>AC04</t>
+          <t>AP01</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>AC03</t>
+          <t>PB12</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>AC07</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>MNMCX</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>AC06</t>
+          <t>PB13</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2020-09-01T04:09:32</t>
+          <t>PB16</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2020-09-01T04:09:40</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2020-09-01T04:09:40</t>
+          <t>2019-12-03T08:46:40</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2020-09-01T04:09:42</t>
+          <t>2019-12-03T08:46:40</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2020-09-01T04:09:42</t>
+          <t>2019-12-03T08:46:44</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>AC05</t>
+          <t>2019-12-03T08:46:51</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>2019-12-03T08:46:51</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>2020-09-01T04:09:45</t>
+          <t>2019-12-03T08:46:51</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>2020-09-01T04:09:45</t>
+          <t>2019-12-03T08:46:51</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11303705</v>
+        <v>11303695</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44075.18752314815</v>
+        <v>44075.17324074074</v>
       </c>
       <c r="C43" t="n">
-        <v>-28.0385</v>
+        <v>-27.9728</v>
       </c>
       <c r="D43" t="n">
-        <v>-71.28740000000001</v>
+        <v>-71.3031</v>
       </c>
       <c r="E43" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -4359,65 +4359,65 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2020-09-01T04:30:05</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-09-01T04:30:14</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2020-09-01T04:30:15</t>
+          <t>2020-09-01T04:09:32</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2020-09-01T04:30:16</t>
+          <t>2020-09-01T04:09:40</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2020-09-01T04:30:16</t>
+          <t>2020-09-01T04:09:40</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>AC05</t>
+          <t>2020-09-01T04:09:42</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>2020-09-01T04:09:42</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>2020-09-01T04:30:18</t>
+          <t>2020-09-01T04:09:45</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>2020-09-01T04:30:18</t>
+          <t>2020-09-01T04:09:45</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11304044</v>
+        <v>11303705</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44075.88144675926</v>
+        <v>44075.18752314815</v>
       </c>
       <c r="C44" t="n">
-        <v>-27.9154</v>
+        <v>-28.0385</v>
       </c>
       <c r="D44" t="n">
-        <v>-71.3716</v>
+        <v>-71.28740000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -4451,229 +4451,321 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2020-09-01T21:09:22</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2020-09-01T21:09:29</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2020-09-01T21:09:29</t>
+          <t>2020-09-01T04:30:05</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2020-09-01T21:09:31</t>
+          <t>2020-09-01T04:30:14</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2020-09-01T21:09:31</t>
+          <t>2020-09-01T04:30:15</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>AC05</t>
+          <t>2020-09-01T04:30:16</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>2020-09-01T04:30:16</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2020-09-01T21:09:35</t>
+          <t>2020-09-01T04:30:18</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>2020-09-01T21:09:35</t>
+          <t>2020-09-01T04:30:18</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11306164</v>
+        <v>11304044</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44080.05344907408</v>
+        <v>44075.88144675926</v>
       </c>
       <c r="C45" t="n">
-        <v>-30.3501</v>
+        <v>-27.9154</v>
       </c>
       <c r="D45" t="n">
-        <v>-71.49379999999999</v>
+        <v>-71.3716</v>
       </c>
       <c r="E45" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>AC04</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>AC03</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>AC07</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>AC06</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2020-09-06T01:17:02</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2020-09-06T01:17:03</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2020-09-06T01:17:04</t>
+          <t>2020-09-01T21:09:22</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2020-09-06T01:17:04</t>
+          <t>2020-09-01T21:09:29</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2020-09-06T01:17:06</t>
+          <t>2020-09-01T21:09:29</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>2020-09-01T21:09:31</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>CO03</t>
+          <t>2020-09-01T21:09:31</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>2020-09-06T01:17:06</t>
+          <t>2020-09-01T21:09:35</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>2020-09-06T01:17:09</t>
+          <t>2020-09-01T21:09:35</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>11306164</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44080.05344907408</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-30.3501</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-71.49379999999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:02</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:03</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:04</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:04</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:06</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:06</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
         <v>11308494</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B47" s="2" t="n">
         <v>44085.31663194444</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C47" t="n">
         <v>-21.3957</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D47" t="n">
         <v>-69.9093</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E47" t="n">
         <v>6.2</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>PB09</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>PB02</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>PB07</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>PB01</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>PX05</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>PATCX</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>PB09</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2020-09-11T07:35:58</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>2020-09-11T07:36:01</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>2020-09-11T07:36:04</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>2020-09-11T07:36:04</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>2020-09-11T07:36:05</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>PB03</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>PB09</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>2020-09-11T07:36:06</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>2020-09-11T07:36:07</t>
         </is>
